--- a/data-raw/qc_mapping.xlsx
+++ b/data-raw/qc_mapping.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jferreira-admin/PhD/qualitycontrol/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E80F41-3465-5645-88FD-361BCCF27A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87AF86-4D53-9040-9638-A10D7BDEA1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" activeTab="1" xr2:uid="{55649767-7D1E-564D-A3EA-4030B14BE75B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" activeTab="3" xr2:uid="{55649767-7D1E-564D-A3EA-4030B14BE75B}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
-    <sheet name="qc_mapping" sheetId="1" r:id="rId2"/>
+    <sheet name="missing" sheetId="1" r:id="rId2"/>
+    <sheet name="inconsistencies" sheetId="5" r:id="rId3"/>
+    <sheet name="range" sheetId="4" r:id="rId4"/>
+    <sheet name="validation" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
   <si>
     <t>subjid</t>
   </si>
@@ -121,17 +124,69 @@
     <t>lower_value</t>
   </si>
   <si>
-    <t>higher_value</t>
+    <t>inconsistent_values</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>variable2</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>greater_than</t>
+  </si>
+  <si>
+    <t>lower_than</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>lower_than_or_equal</t>
+  </si>
+  <si>
+    <t>greater_than_or_equal</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>bulbar, respiratory, spinal</t>
+  </si>
+  <si>
+    <t>variable1</t>
+  </si>
+  <si>
+    <t>upper_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,11 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +541,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +616,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:M2" ca="1" si="0">RANDBETWEEN(1,4)</f>
@@ -568,23 +624,23 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
@@ -592,7 +648,7 @@
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
@@ -600,11 +656,11 @@
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <f>O2+5</f>
@@ -618,68 +674,68 @@
       </c>
       <c r="Q2" s="1">
         <f ca="1">DATE(RANDBETWEEN(2002,2010),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>37731</v>
+        <v>38952</v>
       </c>
       <c r="R2" s="1">
         <f ca="1">DATE(RANDBETWEEN(2010,2020),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>41449</v>
+        <v>40614</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A31" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:M32" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="B3:M32" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="I3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N32" si="2">O3+5</f>
+        <f t="shared" ref="N3:N32" si="3">O3+5</f>
         <v>82</v>
       </c>
       <c r="O3">
@@ -689,69 +745,69 @@
         <v>22</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q32" ca="1" si="3">DATE(RANDBETWEEN(2002,2010),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>37319</v>
+        <f t="shared" ref="Q3:Q32" ca="1" si="4">DATE(RANDBETWEEN(2002,2010),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
+        <v>39020</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R32" ca="1" si="4">DATE(RANDBETWEEN(2010,2020),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>40505</v>
+        <f t="shared" ref="R3:R32" ca="1" si="5">DATE(RANDBETWEEN(2010,2020),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
+        <v>43037</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="O4">
@@ -761,8 +817,8 @@
         <v>20</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38898</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39326</v>
       </c>
       <c r="R4" s="3">
         <f>DATE(9999,12,30)</f>
@@ -771,59 +827,59 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="O5">
@@ -833,69 +889,69 @@
         <v>19</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40142</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39182</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42758</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42659</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="O6">
@@ -905,68 +961,68 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>37436</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37395</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40584</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42378</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="L7" s="2">
         <v>5</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="O7">
@@ -976,69 +1032,69 @@
         <v>20</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40088</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38959</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40796</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41551</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="O8">
@@ -1048,66 +1104,66 @@
         <v>20</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38180</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37628</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41441</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43790</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="N9" s="2">
         <v>50</v>
@@ -1119,66 +1175,66 @@
         <v>20</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39359</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40144</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41604</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>44051</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>65</v>
@@ -1190,69 +1246,69 @@
         <v>20</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40483</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37532</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40450</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41301</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="O11">
@@ -1262,66 +1318,66 @@
         <v>19</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38365</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40409</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41950</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41033</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="O12">
@@ -1331,66 +1387,66 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39080</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40382</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41403</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42609</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="O13">
@@ -1400,66 +1456,66 @@
         <v>19</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40212</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37888</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40282</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43700</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="O14">
@@ -1469,69 +1525,69 @@
         <v>19</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40272</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39652</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40376</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41717</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="O15">
@@ -1541,66 +1597,66 @@
         <v>19</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>37294</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40080</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41040</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43533</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>87</v>
@@ -1612,69 +1668,69 @@
         <v>20</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39262</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37391</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>43225</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42267</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="O17">
@@ -1684,69 +1740,69 @@
         <v>20</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38262</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38061</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42347</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42479</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="O18">
@@ -1756,69 +1812,69 @@
         <v>21</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39181</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39757</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41299</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43783</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="L19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="O19">
@@ -1828,69 +1884,69 @@
         <v>20</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38672</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42848</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43078</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="L20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="O20">
@@ -1900,69 +1956,69 @@
         <v>21</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39473</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37324</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42565</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40806</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="L21">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="O21">
@@ -1972,69 +2028,69 @@
         <v>20</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>40494</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39328</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42022</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41182</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="O22">
@@ -2044,69 +2100,69 @@
         <v>19</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39335</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39725</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41820</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41554</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="C23:M32" ca="1" si="5">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ref="C23:M32" ca="1" si="6">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="L23">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="O23">
@@ -2116,69 +2172,69 @@
         <v>19</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39979</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39336</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>40734</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41711</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="I24">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="L24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="O24">
@@ -2188,69 +2244,69 @@
         <v>19</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39283</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38244</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42633</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>43102</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="I25">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="L25">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="O25">
@@ -2260,8 +2316,8 @@
         <v>19</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>39717</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38074</v>
       </c>
       <c r="R25" s="3">
         <f>DATE(2002,12,2)</f>
@@ -2270,59 +2326,59 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="I26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="L26">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="O26">
@@ -2332,69 +2388,69 @@
         <v>21</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39118</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38789</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>43645</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>40416</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="I27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="L27">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="O27">
@@ -2404,69 +2460,69 @@
         <v>20</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>37345</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39127</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41396</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42639</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="L28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="O28">
@@ -2476,65 +2532,65 @@
         <v>21</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39743</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40277</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42918</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42994</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="L29">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="N29">
@@ -2547,69 +2603,69 @@
         <v>19</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>39232</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37486</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>42395</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42217</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="L30">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="M30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="O30">
@@ -2619,69 +2675,69 @@
         <v>19</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38398</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37392</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41065</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42332</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f>A30+1</f>
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="L31">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="O31">
@@ -2691,68 +2747,68 @@
         <v>19</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>37570</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39244</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>41816</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42117</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="I32">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="K32">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="L32">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="M32">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="O32">
@@ -2762,12 +2818,12 @@
         <v>19</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>38989</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37488</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>43353</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>41093</v>
       </c>
     </row>
   </sheetData>
@@ -2777,19 +2833,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F736D4-5DD9-A745-82BB-3ED45677670C}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2799,16 +2856,300 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7C4E0D2-407D-B442-AE77-2ED92DF9D339}">
+          <x14:formula1>
+            <xm:f>validation!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF26A072-A262-CA46-BD7A-A8A919C67DA7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F851D7B-6EA3-0D42-AA9B-961C54CA956D}">
+          <x14:formula1>
+            <xm:f>validation!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BFD7EF-0D46-F244-BD32-BEB83E2740C4}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2816,10 +3157,16 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2827,10 +3174,16 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2838,10 +3191,16 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2849,10 +3208,16 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2860,10 +3225,16 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -2871,10 +3242,16 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2882,10 +3259,16 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -2893,10 +3276,16 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2904,10 +3293,16 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -2915,10 +3310,16 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2926,10 +3327,16 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2937,225 +3344,153 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>"2000-01-01"</f>
+        <v>2000-01-01</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>"2022-01-01"</f>
+        <v>2022-01-01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FBDFB56-B1F6-BB48-8696-FD853645E3C3}">
+          <x14:formula1>
+            <xm:f>validation!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA2A4D-A678-C14A-A2B4-504ED428877B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/qc_mapping.xlsx
+++ b/data-raw/qc_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jferreira-admin/PhD/qualitycontrol/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87AF86-4D53-9040-9638-A10D7BDEA1A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3558C71-DBF3-7E44-8A53-15675E0E6C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" activeTab="3" xr2:uid="{55649767-7D1E-564D-A3EA-4030B14BE75B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" activeTab="4" xr2:uid="{55649767-7D1E-564D-A3EA-4030B14BE75B}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
@@ -616,51 +616,51 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:M2" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <f>O2+5</f>
@@ -674,11 +674,11 @@
       </c>
       <c r="Q2" s="1">
         <f ca="1">DATE(RANDBETWEEN(2002,2010),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>38952</v>
+        <v>37706</v>
       </c>
       <c r="R2" s="1">
         <f ca="1">DATE(RANDBETWEEN(2010,2020),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>40614</v>
+        <v>40469</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -692,15 +692,15 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
@@ -708,7 +708,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
@@ -716,15 +716,15 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="2"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N32" si="3">O3+5</f>
@@ -746,11 +746,11 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" ref="Q3:Q32" ca="1" si="4">DATE(RANDBETWEEN(2002,2010),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>39020</v>
+        <v>37805</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R32" ca="1" si="5">DATE(RANDBETWEEN(2010,2020),RANDBETWEEN(1,12),RANDBETWEEN(1,30))</f>
-        <v>43037</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -760,15 +760,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
@@ -776,19 +776,19 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="2"/>
@@ -796,15 +796,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39326</v>
+        <v>39109</v>
       </c>
       <c r="R4" s="3">
         <f>DATE(9999,12,30)</f>
@@ -832,11 +832,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
@@ -848,35 +848,35 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
@@ -890,11 +890,11 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39182</v>
+        <v>40509</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42659</v>
+        <v>43104</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -912,11 +912,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
@@ -924,11 +924,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
@@ -936,19 +936,19 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
@@ -962,11 +962,11 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37395</v>
+        <v>39015</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42378</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -976,31 +976,31 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
@@ -1033,11 +1033,11 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38959</v>
+        <v>39202</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41551</v>
+        <v>40306</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1047,15 +1047,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
@@ -1067,11 +1067,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
@@ -1079,19 +1079,19 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -1105,11 +1105,11 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37628</v>
+        <v>37575</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43790</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1119,35 +1119,35 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="2"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>50</v>
@@ -1176,11 +1176,11 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40144</v>
+        <v>37603</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44051</v>
+        <v>43224</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
@@ -1202,11 +1202,11 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
@@ -1218,19 +1218,19 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37532</v>
+        <v>38505</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41301</v>
+        <v>41497</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1261,19 +1261,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
@@ -1281,11 +1281,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
@@ -1293,19 +1293,19 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40409</v>
+        <v>38140</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41033</v>
+        <v>42510</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40382</v>
+        <v>39150</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42609</v>
+        <v>42639</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
@@ -1414,36 +1414,36 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37888</v>
+        <v>38363</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43700</v>
+        <v>40349</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1471,15 +1471,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
@@ -1487,28 +1487,28 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="2"/>
@@ -1526,11 +1526,11 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39652</v>
+        <v>40534</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41717</v>
+        <v>43651</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1548,23 +1548,23 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
@@ -1572,19 +1572,19 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40080</v>
+        <v>39735</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43533</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>87</v>
@@ -1669,11 +1669,11 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37391</v>
+        <v>38610</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42267</v>
+        <v>40379</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
@@ -1703,23 +1703,23 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="2"/>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38061</v>
+        <v>39268</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42479</v>
+        <v>40418</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1759,19 +1759,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
@@ -1783,15 +1783,15 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
@@ -1813,11 +1813,11 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39757</v>
+        <v>37487</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43783</v>
+        <v>40833</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1835,43 +1835,43 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
@@ -1885,11 +1885,11 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38672</v>
+        <v>37437</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43078</v>
+        <v>44182</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1899,11 +1899,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
@@ -1915,35 +1915,35 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
@@ -1957,11 +1957,11 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37324</v>
+        <v>40377</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40806</v>
+        <v>42505</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
@@ -1999,11 +1999,11 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
@@ -2029,11 +2029,11 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39328</v>
+        <v>38214</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41182</v>
+        <v>42078</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
@@ -2055,27 +2055,27 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="2"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
@@ -2101,11 +2101,11 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39725</v>
+        <v>38814</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41554</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -2127,11 +2127,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
@@ -2147,15 +2147,15 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="6"/>
@@ -2173,11 +2173,11 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39336</v>
+        <v>37408</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41711</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2187,11 +2187,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="6"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
@@ -2215,19 +2215,19 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="6"/>
@@ -2245,11 +2245,11 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38244</v>
+        <v>39306</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>43102</v>
+        <v>42826</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2259,15 +2259,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="6"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="6"/>
@@ -2295,15 +2295,15 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="Q25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>38074</v>
+        <v>38941</v>
       </c>
       <c r="R25" s="3">
         <f>DATE(2002,12,2)</f>
@@ -2335,31 +2335,31 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="6"/>
@@ -2367,15 +2367,15 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
@@ -2389,11 +2389,11 @@
       </c>
       <c r="Q26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38789</v>
+        <v>38940</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40416</v>
+        <v>42432</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="6"/>
@@ -2411,23 +2411,23 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="6"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
@@ -2443,11 +2443,11 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
@@ -2461,11 +2461,11 @@
       </c>
       <c r="Q27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39127</v>
+        <v>38356</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42639</v>
+        <v>40821</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="6"/>
@@ -2483,27 +2483,27 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="6"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="6"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="Q28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>40277</v>
+        <v>40050</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42994</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="6"/>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="6"/>
@@ -2575,19 +2575,19 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="6"/>
@@ -2604,11 +2604,11 @@
       </c>
       <c r="Q29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37486</v>
+        <v>37387</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42217</v>
+        <v>43048</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2618,15 +2618,15 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
@@ -2638,23 +2638,23 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="6"/>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
@@ -2676,11 +2676,11 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37392</v>
+        <v>38195</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42332</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="6"/>
@@ -2698,23 +2698,23 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="6"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
@@ -2730,11 +2730,11 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
@@ -2748,11 +2748,11 @@
       </c>
       <c r="Q31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39244</v>
+        <v>38667</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42117</v>
+        <v>42154</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2761,15 +2761,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
@@ -2777,35 +2777,35 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
@@ -2819,11 +2819,11 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37488</v>
+        <v>39505</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41093</v>
+        <v>41825</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2836,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3116,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BFD7EF-0D46-F244-BD32-BEB83E2740C4}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3439,9 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA2A4D-A678-C14A-A2B4-504ED428877B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
